--- a/biology/Botanique/Gyrocarpaceae/Gyrocarpaceae.xlsx
+++ b/biology/Botanique/Gyrocarpaceae/Gyrocarpaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Gyrocarpaceae est une famille de plantes dicotylédones. 
 L'espèce la plus connue est Gyrocarpus americanus ou Gyrocarpus jacquinii.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Gyrocarpus, issu du grec γυροσ / gyros, « cercle ; rond », et καρποσ / carpos, fruit[1]. D'après Joseph von Jacquin « en Amérique, les enfants s'amusent à jeter en l'air le fruit de cet arbre, pour se donner le plaisir de le voir descendre à terre en tournoyant, les ailes dont il est pourvu le soutenant doucement dans l'air »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Gyrocarpus, issu du grec γυροσ / gyros, « cercle ; rond », et καρποσ / carpos, fruit. D'après Joseph von Jacquin « en Amérique, les enfants s'amusent à jeter en l'air le fruit de cet arbre, pour se donner le plaisir de le voir descendre à terre en tournoyant, les ailes dont il est pourvu le soutenant doucement dans l'air ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille est rarement reconnue par les systèmes de taxonomie végétale ces plantes étant souvent classées dans la famille des Hernandiaceae. 
 C'est également le point de vue des systèmes APG (1998), APGII (2003), APGIII (2009) et APGIV (2016).
